--- a/src/main/resources/easyexcel/out/easy_excel_export_template_out.xlsx
+++ b/src/main/resources/easyexcel/out/easy_excel_export_template_out.xlsx
@@ -430,7 +430,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-11-04 11:15:31</t>
+          <t>2021-12-29 10:09:19</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -445,7 +445,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-11-04 11:15:31</t>
+          <t>2021-12-29 10:09:19</t>
         </is>
       </c>
       <c r="C4" t="n">
